--- a/biology/Médecine/Maladie_de_Scheuermann/Maladie_de_Scheuermann.xlsx
+++ b/biology/Médecine/Maladie_de_Scheuermann/Maladie_de_Scheuermann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La maladie de Scheuermann est une dystrophie rachidienne apparaissant au cours de la croissance et provoquant une cyphose dorsale douloureuse.
 De nombreuses autres appellations ont été utilisées : cyphose juvénile, épiphysite vertébrale de croissance, ostéochondrose juvénile vertébrale, cyphose douloureuse des adolescents, etc.
-La maladie de Scheuermann tient son nom de son découvreur, Holger Werfel Scheuermann, médecin radiologue danois qui a décrit en 1921 les lésions caractéristiques de la cyphose des apprentis horlogers[1].
+La maladie de Scheuermann tient son nom de son découvreur, Holger Werfel Scheuermann, médecin radiologue danois qui a décrit en 1921 les lésions caractéristiques de la cyphose des apprentis horlogers.
 La maladie de Scheuermann serait, selon certains spécialistes, héréditaire[réf. nécessaire]. Elle pourrait parfois être également causée par le poids d'une charge lourde, sacs d'école par exemple. Néanmoins, cela n'est pas prouvé.
 </t>
         </is>
@@ -514,7 +526,9 @@
           <t>Physiopathologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le mécanisme est encore imprécis. On considère qu'il s'agit d'une mauvaise synchronisation dans les différents processus d'ossification dont la vertèbre dorsale est le siège. Plusieurs hypothèses ont été émises :
 effondrement disséminé de la plaque cartilagineuse avec encastrement du nucléus dans le corps vertébral formant une hernie intraspongieuse ;
@@ -547,7 +561,9 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La fréquence de cette maladie est élevée, de 0,5 à 10 % en fonction des critères diagnostics choisis. Elle survient pendant la phase de croissance pubertaire du rachis, le plus souvent au niveau des vertèbres dorsales ou thoraciques (D4 à D8), entre 12 et 18 ans, principalement chez le garçon.
 </t>
@@ -580,11 +596,14 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Symptômes
-Souvent la maladie est asymptomatique et de découverte fortuite sur des radiologies standards effectuées pour un autre motif.
+          <t>Symptômes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Souvent la maladie est asymptomatique et de découverte fortuite sur des radiologies standards effectuées pour un autre motif.
 Habituellement les symptômes prédominent sur le rachis dorsal bas avec des douleurs mécaniques, une cyphose thoracique moyenne le plus souvent et thoraco-lombaire plus rarement, une scoliose thoraco-lombaire est parfois associée. Les signes neurologiques sont rares.
-Facteurs de risques
-Le sport est un facteur d'aggravation s'il est mal pratiqué. Un conseil médical est souvent nécessaire. En règle générale, le sport n'est pas interdit et il est conseillé d'en pratiquer, cependant il faut veiller à éviter les micro-traumatismes et de privilégier les sports « doux ».
 </t>
         </is>
       </c>
@@ -610,10 +629,49 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Clinique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Facteurs de risques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sport est un facteur d'aggravation s'il est mal pratiqué. Un conseil médical est souvent nécessaire. En règle générale, le sport n'est pas interdit et il est conseillé d'en pratiquer, cependant il faut veiller à éviter les micro-traumatismes et de privilégier les sports « doux ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Maladie_de_Scheuermann</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maladie_de_Scheuermann</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Radiographie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le diagnostic repose sur des clichés simples du rachis de profil. Le rachis dorsal doit être exploré par un cliché de profil réalisé debout.
 En cas de forme symptomatique, le cliché simple de rachis dorsal de profil doit être complété par deux clichés de rachis dans son ensemble pour analyser la statique.
@@ -635,31 +693,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Maladie_de_Scheuermann</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Maladie_de_Scheuermann</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Diagnostic différentiel</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Spondylodiscites infectieuses.
 Cyphose congénitale primitive ou secondaire à une tumeur.
@@ -669,31 +729,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Maladie_de_Scheuermann</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Maladie_de_Scheuermann</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Kinésithérapie active, travail des chaînes musculaires.
 Port de charges lourdes avec précautions.
